--- a/500all/speech_level/speeches_CHRG-114hhrg97419.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97419.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="262">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400196</t>
   </si>
   <si>
-    <t>Darrell E. Issa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Issa. The Committee will come to order.    Today's hearing concerns digital trade, and specifically cross-border data flows. The modern economy requires data flow and to flow freely.    Individuals and businesses rely on technology and the efficient and reliable movement of data across borders. The recent decision by the European Court of Justice, invalidating the 15-year-old Safe Harbor Agreement between the United States and the European Union, created uncertainty that's bad for business everywhere. We hear that a new Safe Harbor Agreement is imminent. But if an agreement is not reached by the end of January 2016, then the consequences for transatlantic data flow and business operations could be dire.    To help us reach a new agreement with the EU, the House passed a Judicial Redress Act last month. Though it still awaits Senate action, it is a strong move by the House to support--in support of reaching this vital agreement.    But cross-border data flow are not simply a transatlantic issue. They also figure prominently in the Trans-Pacific Partner Agreement, or TPP. As we consider digital trade issues more globally, it is important to view the tactics being used to restrict it as much as any other point of it. The trade barriers being used to restrict cross-border data flows are simply nontariff trade barriers. By any other name, it is protectionism, and it hurts U.S. competitiveness; it hurts the very countries who are implementing these protectionist agreements, and ultimately, it will hurt global trading with all the partners who depend on data free flow in a 21st Century.    These trade barriers include localization requirements for cloud computing. That means that instead of harnessing the economies of scale that come from a cloud, companies will be forced to house in facilities in individual countries, resulting in duplicative infrastructure and higher costs. Let us bear in mind that a location anywhere on the face of the earth is a location everywhere on the face of the earth. And many countries seem to ignore that in favor of basically an infrastructure construction project being mandated in their country.    And it's not just technology companies that can be harmed by these types of digital trade barriers. In the financial services industry, banks use a security practice known as charting, that splits a single customer's information into discreet packets that are stored in multiple locations to prevent a hacker from compromising it. By its very definition, this practice would be impossible without the free flow of data.    In July, we held a hearing on The Internet of Things, or IOT. This new era of technology relies on sensors transmitting data to a cloud for analysis. If the data cannot flow freely around the globe, then The Internet of Things technologies will not be as successful as they could be, and, in fact, could restrict many of the technologies already implemented in The Internet of Things.    If countries are allowed to unduly restrict data flow, what is to stop them from creating new market access requirements that require companies to share source code, trade secrets, utilize--utilize or source solely from local companies, and more absurdly, force U.S. studios to alter their story line of a movie as a condition of market access.    The last one isn't that absurd. A report published just last week by the U.S.-China Economic and Security Review Commission, explains just how China regulator--China's regulators do just that as a condition of market access.    As this Committee works to promote digital trade, we are continuing a long battle against market access barriers that take surprisingly, and oftentimes, strange forms.    Though the issues can oft-times seem complex, the goal here is to actually make this simple and understandable for the American people to ensure free and fair trade, improving U.S. competitiveness globally.    Digital trade helps drive the modern economy, and I look forward to our witnesses today and a healthy debate on these issues.    Last but not least, it goes without saying that no one owns data in a global environment exclusively. An economic transaction for an American who is traveling in a foreign country, requires a look-back to their country. If the United States refuses to provide that data, while another country refuses to provide the information as to what is being bought or what service is being procured, then, in fact, you have a standoff; I won't let my data flow to you to tell you what customer X is buying, and you won't tell me if customer X can pay for it. Can you imagine trying to travel with a MasterCard or a Visa or an American Express that simply couldn't cross international lines? Sounds absurd? Not if everyone says, my data is mine, and I won't share.    And with that, I recognize the Ranking Member for his opening statement.</t>
   </si>
   <si>
     <t>400289</t>
   </si>
   <si>
-    <t>Jerrold Nadler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nadler. Thank you, Mr. Chairman.    Today's global economy is largely a digital economy. Thanks to the Internet, massive amounts of data can be sent across the global in an instant, connecting businesses and consumers alike. The ability to easily transmit data at low cost throughout the world has spurred tremendous innovation and fostered significant economic growth. But various countries have erected barriers to the free flow of data across borders. Some of these restrictions are intended to stifle dissent and free speech. Some are purely protectionist in nature, or some are for other policy reasons, such as protecting the privacy of a country's citizens.    Today's hearing presents a good opportunity to examine what rules should govern the international flow of data, and what role the United States can play in establishing and enforcing these policies.    When we talk about cross-border data flow, it could be something as simple as someone in a New York office of a multi-national bank and emailing a colleague in the bank's Hong Kong office. It could also be someone sitting in Paris accessing their Facebook account, or logging onto iTunes and downloading movies and songs contained on American servers.    But it also has much more complex applications. Cloud computing allows businesses and consumers to store data and service that could be located anywhere in the world. And some global businesses gather data across their worldwide operations to a centralized location where it can be analyzed to better stream their supply chain or improve service to their customers.    Companies of every shape and size, and across nearly every industry, rely on data that crosses international borders at some point along its journey. That is why it's important that we carefully examine any restrictions that might impede the free flow of data.    Some restrictions, like those that block access to social media or filter out political dissent, are clearly improper, and threaten the human rights of those countries and citizens. America should continue to lead the world in opposing oppressive regimes that stifle the freedom of their people.    Other restrictions, like those requiring a company to process data domestically, or to locate certain infrastructure in-country, are often intended to bolster domestic companies. Many of these restrictions can be removed in the context of trade agreements.    But I have been a persistent critic of some such agreements, in part, because of their devastating impact on American jobs, and we should tread carefully in the digital realm before we make some of the same mistakes we have made with physical goods.    More complicated to address the limitations on data flow, the countries impose to advance other policy goals, like privacy protection. Finding the right balance between protecting the needs of American businesses, respecting the legitimate policies of other Nations, and to ensure that other countries respect ours is not an easy task. That was made clear by the recent decision by the Court of Justice of the European Union to invalidate the U.S. EU Safe Harbor framework. This important agreement enabled more than 4,000 American businesses to transfer the personal data of EU citizens to the United States if the company certify that they would comply with certain adequacy requirements to protect personal privacy.    The court, however, determined, in part, that because the Safe Harbor scheme only applies to companies and not public authorities, there was not adequate protection for EU citizens from U.S. surveillance activities, and the entire agreement was, therefore, invalidated.    The court also found that EU citizens do not have sufficient remedies under U.S. law if their privacy rights after a transfer are violated.    The gentleman from Wisconsin, Mr. Sensenbrenner, and the distinguished Ranking Member of the full Committee, Mr. Conyers, deserve great credit for working to address the second issue by drafting the Judicial Redress Act, which will provide important privacy protections for EU citizens under U.S. law.    The Judicial Redress Act has already passed the House, and I hope the Senate will take it up shortly. I also appreciate the U.S. Department of Commerce, which is hard at work negotiating a new Safe Harbor Agreement. I hope a new agreement is reached soon, but I also hope that Congress will view this incident as a wake-up call.    The USA Freedom Act took an important step in curtailing surveillance activities, but we should go much further in strengthening our privacy protections. It should not take a European court to prod us into protecting our own citizens.    To ensure that businesses have the flexibility they need, while consumers have the protections they deserve, the United States must work with its partners in the global community to set clear standards governing cross-border data flow. I look forward to discussing what these standards ought to be with our esteemed panel of witnesses today, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -73,18 +67,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman.    Today's hearing reflects a new twist on the same old song. U.S. companies are at the forefront of the digital economy, and as our companies look to operate globally, they face new and novel nontariff trade barriers that could make it costly, or near impossible, to operate overseas. As we work to promote digital trade, we must work to make sure that the international playing field is fair. When foreign countries attempt to raise trade barriers ore put in costly regulations as a cost of doing business, we need to call it out for what it is, a barrier to free and fair trade.    We are now in a world where, on one side of the globe, the United States has negotiated the Trans-Pacific Partnership Trade Agreement, with rules promoting cross-border data flows and preventing undue restrictions, such as localization requirements.    And on the other side of the globe, we look at Europe, which has invalidated a 15-year-old Safe Harbor Agreement. This decision translates into uncertainty for thousands of American companies doing business in Europe, which could have a ripple effect on our economy.    As the United States and Europe continue to negotiate the new Safe Harbor Agreement, we must understand that this is a complex issue for all sides. And we are cautiously optimistic that the Administration and our European allies will be able to come to an agreement that eliminates uncertainty and allows transatlantic commerce to continue.    In the House, we recently passed the Judicial Redress Act. This bipartisan bill, awaiting Senate action, extends certain privacy protections to citizens of European countries, as well as other allied Nations if the Federal Government willfully discloses information in violation of the Privacy Act. Under this bill, citizens of designated countries will be extended the core benefits of the Privacy Act, which already applies to Americans, with regard to information shared with U.S. law enforcement authorities, including the ability to bring a lawsuit for the intentional or willful disclosure of personal information.    This hearing is important because the rules of the road that are considered on digital trade and data flows will either promote or impede the growth of the Internet. A recent BSA report stated that 90 percent of all of the world's data was created in just the last 2 years. While an incredible statistic, it also shows how important data and data flows are to innovation and economic growth.    Localization requirements, such as forcing companies to locate data centers in a particular country, defeat the whole point of cloud computing. New technologies, like The Internet of Things and cloud computing, rely on cross-border data flows. Undue restrictions could prevent companies like Boeing and GE from using IOT sensors in jet engines to send back real-time data to their engineers in the United States.    For global diversified technology and manufacturing companies, they would face the absurd situation of not being able to move their own R&amp;D data from country to country.    Restrictions on data flows fail to recognize the importance of interconnected global supply chains, and the need for the uninterrupted movement of data.    As this Committee continues to study this issue, it is important for us to keep in mind the effects on public policy today and in the future.    I am hopeful that the right policies will help fuel the engine of American innovation, prosperity, and creativity. I think we have a great panel assembled today, and I look forward to hearing from all of our witnesses.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. The gentleman yields back. Thank you.    We now will hear from the Ranking Member of the full Committee, the gentleman from Michigan, Mr. Conyers.</t>
   </si>
   <si>
-    <t>Conyers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Chairman Issa.    I think this is a more important hearing than a lot of people appreciate it. Certainly, that's the case of myself. And to our distinguished list of panelists, we welcome you all, particularly Dr. Atkinson. But I just want to get something out about the digital trade, because the growth of our economy relies on the expansion of the global digital economy, and efficient cross-border data flow as digital trade becomes a larger portion of the global economy. That's the heart of my introductory comments.    According to the United States International Trade Commission, a digital trade increased U.S. average wages and helped create about 2.4 million full-time positions in 2011, the same year digital trade also increased annual U.S. GDP by 4.8 percent.    As we hear from today's witnesses, which I welcome, I'd like to have considered the following points: To begin with, any discussion on digital trade and unrestricted cross-border data flows requires a serious discussion on surveillance reform. Earlier this year, a coalition of companies, trade associations, civil rights organizations, wrote to the leadership of both parties to outline the economic costs of the significant erosion of global public trust in both the United States Government, and the United States technology sector. Their fears appear to have been prescient.    Last month, citing concerns about insufficient privacy safeguards in the U.S. Court of Justice of the European Union suspended the U.S. EU Safe Harbor framework that allows about 4,400 United States-based companies to move digital information across the Atlantic. The decision is a reminder that we need to have a thorough conversation about surveillance reform. Without one, we cannot fully address eliminating restrictions on cross-border data flow.    A couple of weeks ago, the House took a step toward a fuller discussion by passing H.R. 1428, the Judicial Redress Act, which our colleague, Jim Sensenbrenner, introduced, and I was proud to be a cosponsor of.    The bill extends to the citizens of certain foreign countries, privacy protection, and it will facilitate information-sharing partnerships with law enforcement agencies across the globe. This will save lives.    Although there is far more work to be done, I hope that our allies will take our work on the Judicial Redress Act as a sign of good faith and a first step.    We must continue to work to restore the public trust necessary for the continued success of the United States industry overseas, while protecting individual rights. Digital trade and cross-border data flows are transforming how American consumers and small businesses operate and interact. For example, Ford Motor Company and Boeing, analyze, in real time, digital data from their vehicles and aircrafts. This helps them diagnose problems and quickly find solutions. This saves consumers money and saves lives.    Similarly, small businesses depend on having efficient cross-border data flow in digital trade. For example, digital trade affords them the ability to expand into foreign markets. Consumers rely on online payment processors, like PayPal, to process their payments globally from purchases on online platforms and small businesses.    Finally, the flow of data across international borders presents a unique regulatory setting. Congress, the Administration, foreign governments, and nongovernmental actors, must provide solid consumer protections that safeguard the development of these ever-increasing data flows. The smart and thoughtful discussion I believe we ought have today will be to illuminate barriers to future growth that we need to consider and address. According to studies, restrictions like data localization mandates hinder economic development in those companies that erect barriers to digital trade. We should examine how they affect consumers and the United States-based businesses.    Still, some barriers are necessary to protect against the digital trade of illegal goods and services, such as digital piracy and the trafficking of child pornography.    I look forward with interest to having the witnesses at today's hearing, and I thank the Chairman.</t>
   </si>
   <si>
@@ -109,27 +97,18 @@
     <t xml:space="preserve">    Mr. Issa. You're most welcome.    Without objection, other members' opening statements will be made a part of the record. We now move to our distinguished panel for today.    The witnesses' written statements will be entered into the record in their entirety, and I'd ask you to please summarize, within 5 minutes or less, your opening statement.    To help us stay within the timing, as you may be used to, you will see a red, yellow, and green light in front of you. Please think of them like you do the lights that you never, never run in your daily driving habits.    Before I introduce the witnesses, I would ask that all witnesses please rise to take the oath pursuant to the Committee rules. Raise your right hands.    Do you solemnly swear or affirm that the testimony you're about to give will be the truth, the whole truth, and nothing but the truth?    Please be seated.    Let the record reflect that all witnesses answered in the affirmative.    Our witnesses today include Ambassador Peter Allgeier, president of the Coalition of Service Industries; Dr. Robert Atkinson, president of the Information Technology and Innovation Foundation; Ms. Victoria Espinel, president and CEO of BSA, the Business Software Alliance, or the Software Alliance now as we want to call it; and Mr. Ed Black, president and CEO of the Computer and Communications Industry Association; and certainly never least, Mr. Mark McCarthy, senior vice president of Public Policy for the Software &amp; Information Industry Association.    And with that, we'll go down, starting with the Ambassador. Oh, and before you begin, I would note that we're going to go about 5 or 10 minutes into when the bells ring, and then we'll be gone for roughly half an hour, but we'll try to get through as many witnesses as possible.    Ambassador.</t>
   </si>
   <si>
-    <t>Allgeier</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Allgeier. Thank you very much, Mr. Chairman, Mr. Ranking Member, and Members of the Subcommittee for allowing me to participate in today's hearing.    The global economy today is in the midst of two revolutions that are inextricably linked: The digital revolution and the services revolution. And the United States is in the best position to define the courses of these revolutions, and to benefit from them if we follow appropriate policies, especially in international trade.    Now, the services revolution is evident from the fact that service is, by far, the largest source of jobs, of GDP, and of job growth. And more importantly, they are the enablers of all other sectors of the economy, including manufacturing, agriculture, and energy.    At the center of the service's revolution, however, is the second revolution, the digital revolution. And all services, indeed, all parts of the economy, depend upon digital communication within their own businesses, with their customers, and with their suppliers. And the Internet, of course, is emblematic of the digital revolution. This revolution has enabled services to be delivered digitally across borders to a degree that was unimaginable two decades ago. But, the international rules and provisions governing trade and services and digital trade have not kept up with these developments. So they urgently need to be updated and brought into line with the realities of a digitally-connected world.    Now, as a number of the members already have said, many countries do not share our entrepreneurial and technological aptitudes and seek to get advantage by imposing legal restrictions on the ability of a firm to manage and move its own data across borders, or they impose requirements to store data on local servers. A common measure by such countries is for the government to require that foreign firms establish facilities for storing and processing their data in the jurisdiction that they are serving.    This tendency is particularly pronounced in regulated sectors such as banking, insurance, and telecommunications.    These localization requirements essentially make cloud computing services impossible. Examples of local data storage and processing requirements abound, just, for example, in Greece, in China, in India, in Russia, in Indonesia, and in Malaysia.    So it is essential that our government oppose attempts, in all sectors, to impose localization requirements on local businesses. The opportunity to do so lies in the various trade negotiations that are occurring now. The Trans-Pacific Partnership, the Transatlantic Trade and Investment Partnership, the Trade in Services Agreement in Geneva, and also work in the World Trade Organization.    These negotiations should set the standards for digital trade by, one, ensuring parties can transfer, access, process and store data across borders; two, prohibiting parties from requiring the establishment or use of local servers; three, ensuring nondiscriminatory treatment of digital products and services from other parties; and four, allowing parties to regulate cross-border data flows for legitimate policy reasons, but only within the accepted standards that are included in the World Trade Organization in the GATS, the General Agreement on Trade in Services.    So how are we doing with respect to using these trade agreements? The TPP has made important progress in advancing the objective of freedom for cross-border data flows and prohibitions on localization requirements. However, it includes one very disturbing exception to the prohibition on localization requirements, and that is that financial services, including banking and insurance, are excluded from the localization prohibition. Every other business has that prohibition in this agreement. But most disturbing is that this exception was at the insistence of the U.S. Government, and this misguided position gives our trading partners the perfect political argument to impose such requirements on our businesses.    What we need to do, in addition to fixing that, is to ensure that we don't repeat that mistake in the negotiations that are taking place elsewhere in the transatlantic negotiations, and in the Trade in Services Agreement.    I'll just make one point about Safe Harbor, because that also is something that is extremely important. Everybody knows that that decision was just handed down by the Court of Justice in Europe. Our member companies are very eager to work with the Congress and the Administration to find a solution that preserves our companies' ability to move data across the Atlantic, but with appropriate respect for individuals' privacy.    So thank you, Mr. Chairman and members. We very much appreciate the opportunity to be part of this today, and congratulate you on the attention that you are paying to this issue. It's extremely important to the service industry, but also to the economy more broadly. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. Thank you, Ambassador.    Dr. Atkinson.TESTIMONY OF ROBERT D. ATKINSON, Ph.D., FOUNDER AND PRESIDENT, </t>
   </si>
   <si>
-    <t>Atkinson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Atkinson. Good afternoon, Chairman Issa, Ranking Member Nadler, Members of the Subcommittee. It's a pleasure to be here today to talk about this critical issue. And in my written testimony, I go into great length and detail on all the economic benefits to both the global and the U.S. economy from cross-border data flows, so I won't go into that too much, but I want to make one point that a couple of others have made, which is, this is not, quote, ``just a Silicon Valley thing.'' Cross-border data flows are critical to a wide variety of industry, mining, agriculture, automobile production, finance, retailers.    So this is really something that's affecting all of our industries, all sizes of companies. And, unfortunately, we don't have the ability to control our own fate here, because a growing number of Nations are engaging in digital protectionism. Some of the policy reasons for them are, perhaps, legitimate in the sense that they have this concern for privacy. In other cases, privacy is a guise for just naked protectionism; they don't want data to flow outside their country in order to benefit their own domestic companies. And in, still, other cases, companies are requiring data to reside in their borders so they can have unfetterred government access to that data without the rule of law.    But whatever the rationale, this data protectionism hurts the U.S. economy. It raises costs for our companies; it makes them have less global market share. That's why in 2013, ITIF estimated that the cost to U.S. technology companies alone from all of the Snowden revelations and the backlash against us and the restrictions that companies--countries were putting in place under the guise of the Snowden revelations, we stood--our technology companies stood to lose anywhere between 21- and $35 billion by next year in revenues, in global revenues. That hurts not just our technology companies, but the U.S. economy and U.S. workers.    So what do we need to do? I think one of the things we cannot do for a lot of, I think, reasons, but one is we cannot simply say that the way to solve this problem is to adopt the most stringent privacy regime in the world. We can't have another region, another country, tell us what our laws and rules should be with regard to privacy. Our view is our privacy rules and policies are actually the reason we lead in the global digital economy, not the other way around. So we cannot have one solution.    The good news is, we don't have to have one solution. The way--we've argued very, very strongly that when a foreign--when a U.S. company operates on foreign soil, they're subject to the laws of that country. They can't just--just by moving data back to the U.S., they can't get out of their legal obligation. They can't then say, well, we're going to use U.S. privacy policies, even though we have a branch in Brussels.    So in a lot of ways, I think this is a lot of much ado about nothing. We can look just, for example, at the Canadian privacy commissioner, who has filed a number of successful suits against U.S. companies who have branch plants or facilities in Canada, who have broken, or purportedly, broken Canadian privacy law by moving the data back to the U.S., processing it in a way that was against Canadian rules. The Canadian Government had the ability and the right to bring action against those U.S. companies. They did so, and they prevailed. There's no reason why Europe couldn't do the exact same thing.    So what do we need do? I agree with the Ambassador, we really need to push forward on two steps: The first step being trade agreements. TPP purportedly has--reportedly has strong agreements, protections for digital trade there, TiSA as well. But I think the key challenge there is really making sure that any national security or privacy exceptions are very, very narrow. The risk is that the exceptions won't be narrow, and countries will use this again as a guise to restrict--to restrict data flows.    I also think the U.S. should not be overly defensive, at least on the commercial side of the ledger. We have a right to do what we're doing. Our companies aren't really breaking any laws, by and large. And I think it's time for us to at least put on the table the possibility of a WTO suit against Europe. Europe has, as we all know, cut off our access to data flows to the U.S. because of the Safe Harbor. They have not cut off data flows to Israel; they have not cut off data flows to Argentina, neither--both of those countries still have agreements with Europe, and yet, there is no evidence that the national security protections for government access to that data in Israel or Argentina are any less stringent than ours. If Europe wants to go down this path, they should cut off data flows from every country in the world, not just the United States.    And lastly, we need to--one area we do need to act on is with regard to government access of data. Our companies in America can comply with foreign laws quite well, and when they don't, they can be prosecuted. What they can't comply with is what government does with data. That's why we've proposed that we work with Europe to craft what we call the Geneva convention on the acts on data, where we come up with a set of norms and rules that we would all agree with in terms of government access to data to restore that trust.    Thank you for the opportunity to appear before you today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. And thank you.</t>
   </si>
   <si>
-    <t>Espinel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Espinel. Sorry. Ms. Espinel. I do that. I apologize. Thanks. Victoria.</t>
   </si>
   <si>
@@ -151,9 +130,6 @@
     <t xml:space="preserve">    Mr. Issa. Thank you.    Mr. Black.</t>
   </si>
   <si>
-    <t>Black</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Black. Mr. Chairman, Ranking Member, and Members of the Subcommittee, thank you for your focus on this important issue.</t>
   </si>
   <si>
@@ -166,9 +142,6 @@
     <t xml:space="preserve">    Mr. Issa. Thank you.    Mr. MacCarthy.  TESTIMONY OF MARK MacCARTHY, SENIOR VICE PRESIDENT, PUBLIC </t>
   </si>
   <si>
-    <t>MacCarthy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. MacCarthy. Chairman Issa, Ranking Member Nadler----</t>
   </si>
   <si>
@@ -334,9 +307,6 @@
     <t>400071</t>
   </si>
   <si>
-    <t>Steve Chabot</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Chabot. I thank the Chairman for yielding, and also for holding this very, I think, important and very interesting hearing this afternoon.    It has been mentioned that barriers to free trade in the digital arena have a particularly adverse impact on small businesses, and I happen to be the Chairman of the House Small Business Committee, so I'd just like to ask--give each of the witnesses an opportunity to address what steps should be taken, specifically, to address this adverse impact on small businesses.    And I'll start with you, Mr. Allgeier, Ambassador Allgeier. If that's okay, and I'll just go down the line. If you don't have anything to say, that's okay, too, but----</t>
   </si>
   <si>
@@ -382,9 +352,6 @@
     <t>412379</t>
   </si>
   <si>
-    <t>Judy Chu</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Chu. Thank you, Mr. Chair.    Dr. Atkinson, you state that several countries around the world are limiting free trade in data, and you argue they are motivated by privacy and security concerns, national security and law enforcement concerns, and the desire for economic growth. The European Court of Justice recognized that the U.S. lacks an adequate level of protection for EU data amongst other privacy concerns.    Within this context, can you tell me how the EU views individual privacy and data security, and to what laws or principles do they have in place and what do we have in place here in the U.S.?</t>
   </si>
   <si>
@@ -424,9 +391,6 @@
     <t>412531</t>
   </si>
   <si>
-    <t>Doug Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman. I appreciate it.    Ms. Espinel, I want to go back to something, and then I've got others, too. Back in October last year, 2014, many of my colleagues, including myself, wrote a letter to the U.S. trade representative about the TPP. And just to review, first--we had several things: First, we wanted to include provisions that specifically keep borders open to free flow of data; second, it must prohibit countries from acquiring the use of local data servers and computing infrastructure as a condition for providing digital service; third, it must ensure nondiscriminatory treatment of digital products and services.    Based just on the reports that have come out so far from the Administration and others, where do you think we are in that right now?</t>
   </si>
   <si>
@@ -514,9 +478,6 @@
     <t>412505</t>
   </si>
   <si>
-    <t>Suzan K. DelBene</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DelBene. Thank you, Mr. Chair. And thanks for calling this important and timely hearing.    And thanks to all of you for being here with us today.    First, I want to start with Ms. Espinel. As you state in your testimony, quote, ``In striking down the Safe Harbor, the Court of Justice focused on issues around national security and law enforcement access to data. Troubled by the Snowden leaks, the court concluded that countries that permit indiscriminate surveillance and interception, and mass and undifferentiated accessing of personal data could not be deemed adequate under EU law,'' end quote.    While the national security piece is certainly something familiar to members of this Committee, could you elaborate a bit on why the EU might be concerned about current U.S. law on law enforcement access to data?</t>
   </si>
   <si>
@@ -550,9 +511,6 @@
     <t>412468</t>
   </si>
   <si>
-    <t>Tom Marino</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Mr. Chairman.    I know my colleague and coauthor, Ms. DelBene, asked direct and pointed questions concerning the LEADS Act, so I don't want to get into rehashing that. But is there anyone on the panel that wants to respond even further because of--given the fact that Ms. DelBene ran out of time? Please.</t>
   </si>
   <si>
@@ -607,9 +565,6 @@
     <t>412561</t>
   </si>
   <si>
-    <t>Hakeem S. Jeffries</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jeffries. Thank you, Mr. Chair.    And I want to thank the witnesses for their presence here today and for very thought-provoking testimony.    Let me start with Ms. Espinel. There have been some concerns that have been raised by some of the people that I represent, and, indeed, many aspects of the American public about sort of the downside of development of big data, the privacy concerns with respect to this data being misappropriated, abused, and misused.    But I was wondering if you could speak to some of the potential upsides, the transformative nature of big data as it develops to improve, you know, the quality of life, or address social conditions or improve the functioning of the economy as we move forward.</t>
   </si>
   <si>
@@ -637,9 +592,6 @@
     <t>400652</t>
   </si>
   <si>
-    <t>Ted Poe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Mr. Chairman.    Thank you all for being here.    I want to talk about a specific issue of privacy: Surveillance by government. That's what I'm talking about. Not cybersecurity or any of those issues. Let's focus on that one issue.    To me, the United States has always been the world leader in privacy. We have a Fourth Amendment that you're all familiar with. Many countries, maybe most don't have such a concept as the Fourth Amendment, protection against unreasonable searches and seizures by government.    Mr. Atkinson, you talked about the Europeans use privacy as an excuse for really protectionism. I want to delve in this a little further and, talk about and ask you your opinion. There are three issues that we have regarding government surveillance on Americans. And if the perception of the Europeans is that America doesn't protect the right of privacy, perception, whether it's reality or not, is part of the reason we have this issue with the Europeans.    And one of those is the concept of the FISA courts; the second is surveillance under 702 warrants; the third is backdoor searches, and encryption that government may encourage our businesses to have into their systems; and the fourth is EPCA, whether it should be reformed or hasn't been reformed.    Those four issues to me, and I'm a former judge, are issues where it seems that government intrusion in those four areas and the failure for us, Congress, to redefine or define the Fourth Amendment to make sure it applies in those four areas or not may be part of the problem we have with dealing with foreign countries on the issues that you've all talked about.    So my question is--and I want all five of you to weigh in on this, I just want your opinion--does Congress, in your opinion, need to look at each of those four issues, those four areas where government surveillance on citizens is allowed, and fix that problem, or look at those four issues? What do you think about that issue as regarding government surveillance on citizens and the effect it has on businesses being able to have the free flow of data around the world?    So that's really the only question I have, and I'd like to just start and go down the row and see what you all think about that.</t>
   </si>
   <si>
@@ -697,9 +649,6 @@
     <t>412470</t>
   </si>
   <si>
-    <t>David N. Cicilline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Mr. Chairman.    Thank you to the witnesses for this very useful testimony, as we sort of struggle with this question of how do we preserve cross-border data flows, and if we're really making the point of how important this is to our economy, and how unsustainable a system that interrupts those flows would be in the long term.    And you've all spoken about the need for a narrowly-crafted, but least-restrictive-of-trade kind of standard. And I want to sort of press you a little bit on that, and beginning with you, Mr. Ambassador. You make the same argument, of course, in your written testimony that we need a workable, and commercially-viable and legally-valid alternative to the Safe Harbor provision.    I wonder if you could just expand on this a little bit, and describe what you think should be included in such an alternative. And also, how do your member companies plan to take privacy concerns into account until such a new standard is developed?</t>
   </si>
   <si>
@@ -733,9 +682,6 @@
     <t>400245</t>
   </si>
   <si>
-    <t>Zoe Lofgren</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lofgren. Well, thank you. This has been very interesting, and I appreciate the insight shared by all the witnesses to the Committee.    You know, I think that we are in for a very tough time, actually long term, in trying to reconcile very different approaches to freedom, essentially. If you take a look at what the European Court of Justice did, they basically said that the 2000 Commission had erred by failing to take into account the interaction of U.S. domestic law and U.S. international policy and the framework; in other words, it didn't take in the whole picture, and it's going to allow the data protection agencies in each country to investigate violations. Well, where does that lead us?    I mean, you've got a situation in Europe, and I--as Ms. DelBene mentioned, many of us meet with the parliamentarians from Europe, who feel that their decision on right to be forgotten is extremely important to them and very valuable. And when you get into it with them, you say--I mean, recently, an agency in France ruled that links in content removed under their right to be forgotten has to be removed worldwide. And when you talk to them about, Hey, we have a First Amendment. Even if we agreed with you, we can't agree with you. I mean, we can't allow elimination of First Amendment rights.    So when you talk about data, I think it's--it depends on which kind of data you're talking about. I mean, if you have a database that is the product of the health study, and it's completely owned by, you know, a university, it's possible to control the sharing of that data in a very different way than a posting on Facebook. You know, I think we're looking--we're looking down the road at some very severe--and I'm not sure how we get to a situation that's going to be suitable. But getting to that, I'm wondering--you know, Mr. Black, you mentioned the right to be forgotten and others have talked about it, is a major barrier to data flow. How do you see this ending up when you've got the First Amendment that protects Americans' right to free speech, and a Europe that has no equivalent respect for speech, but has an equivalent right to--to sensor? How are we going to resolve this?</t>
   </si>
   <si>
@@ -800,9 +746,6 @@
   </si>
   <si>
     <t>412199</t>
-  </si>
-  <si>
-    <t>Henry C. "Hank" Johnson, Jr.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Johnson. Well, no. In fact, I'm--I'm prompted to yield whatever time that the gentleman would extend to me, the 5 minutes. I tend to think that I might be better off by just simply yielding to you and listening to your questions. There's a lot that I missed having been absent at an Armed Services Committee meeting, and I don't want to go over plowed ground. I'm just kind of here to learn. And so with that, I will yield back to the Chair.</t>
@@ -1255,11 +1198,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1279,13 +1220,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1307,11 +1246,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1331,13 +1268,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1359,11 +1294,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1383,13 +1316,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1411,11 +1342,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1435,13 +1364,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1463,11 +1390,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1487,13 +1412,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1515,11 +1438,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1539,13 +1460,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1567,11 +1486,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1591,13 +1508,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1619,11 +1534,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1643,13 +1556,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1671,11 +1582,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1695,13 +1604,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1721,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1749,11 +1654,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1773,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1801,11 +1702,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1825,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1853,11 +1750,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1877,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1905,11 +1798,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1929,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1957,11 +1846,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1981,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2009,11 +1894,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2033,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2061,11 +1942,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2085,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2113,11 +1990,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2137,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2165,11 +2038,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2189,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2215,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2241,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2267,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2293,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2319,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2345,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2373,11 +2230,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2399,11 +2254,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2423,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2451,11 +2302,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2475,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2503,11 +2350,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2527,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2555,11 +2398,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2579,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2607,11 +2446,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2631,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2659,11 +2494,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2683,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2711,11 +2542,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2735,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2763,11 +2590,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2787,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2815,11 +2638,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2839,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2867,11 +2686,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2891,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2919,11 +2734,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2943,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2971,11 +2782,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2995,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3023,11 +2830,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3047,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3073,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3099,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3125,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3151,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3177,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3203,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3229,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3255,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3281,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3307,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3333,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3359,13 +3140,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3387,11 +3166,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3411,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>105</v>
-      </c>
-      <c r="G85" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3437,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3463,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>105</v>
-      </c>
-      <c r="G87" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3489,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3515,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>105</v>
-      </c>
-      <c r="G89" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3541,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3567,13 +3332,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>105</v>
-      </c>
-      <c r="G91" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3593,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3619,13 +3380,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
+        <v>96</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
         <v>105</v>
-      </c>
-      <c r="G93" t="s">
-        <v>106</v>
-      </c>
-      <c r="H93" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3647,11 +3406,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3671,13 +3428,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>105</v>
-      </c>
-      <c r="G95" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3697,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3723,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>105</v>
-      </c>
-      <c r="G97" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3751,11 +3502,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3775,13 +3524,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>121</v>
-      </c>
-      <c r="G99" t="s">
-        <v>122</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3801,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3827,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>121</v>
-      </c>
-      <c r="G101" t="s">
-        <v>122</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3853,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3879,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>121</v>
-      </c>
-      <c r="G103" t="s">
-        <v>122</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3905,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3931,13 +3668,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>121</v>
-      </c>
-      <c r="G105" t="s">
-        <v>122</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3957,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3983,13 +3716,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>121</v>
-      </c>
-      <c r="G107" t="s">
-        <v>122</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4009,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4035,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>121</v>
-      </c>
-      <c r="G109" t="s">
+        <v>111</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
         <v>122</v>
-      </c>
-      <c r="H109" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4063,11 +3790,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4087,13 +3812,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>135</v>
-      </c>
-      <c r="G111" t="s">
-        <v>136</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4113,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4139,13 +3860,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>135</v>
-      </c>
-      <c r="G113" t="s">
-        <v>136</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4165,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4191,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>135</v>
-      </c>
-      <c r="G115" t="s">
-        <v>136</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4217,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4243,13 +3956,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>135</v>
-      </c>
-      <c r="G117" t="s">
-        <v>136</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4269,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4295,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>135</v>
-      </c>
-      <c r="G119" t="s">
-        <v>136</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4321,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4347,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>135</v>
-      </c>
-      <c r="G121" t="s">
-        <v>136</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4373,13 +4076,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4399,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>135</v>
-      </c>
-      <c r="G123" t="s">
+        <v>124</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
         <v>136</v>
-      </c>
-      <c r="H123" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4425,13 +4124,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4451,13 +4148,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>135</v>
-      </c>
-      <c r="G125" t="s">
-        <v>136</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4477,13 +4172,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4503,13 +4196,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>135</v>
-      </c>
-      <c r="G127" t="s">
-        <v>136</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4529,13 +4220,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4555,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>135</v>
-      </c>
-      <c r="G129" t="s">
-        <v>136</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4581,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4607,13 +4292,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>135</v>
-      </c>
-      <c r="G131" t="s">
-        <v>136</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4635,11 +4318,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4659,13 +4340,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>135</v>
-      </c>
-      <c r="G133" t="s">
-        <v>136</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4687,11 +4366,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4711,13 +4388,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4737,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>135</v>
-      </c>
-      <c r="G136" t="s">
-        <v>136</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4763,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4789,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>135</v>
-      </c>
-      <c r="G138" t="s">
-        <v>136</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4817,11 +4486,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>12</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4841,13 +4508,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>165</v>
-      </c>
-      <c r="G140" t="s">
-        <v>166</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4867,13 +4532,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4893,13 +4556,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>165</v>
-      </c>
-      <c r="G142" t="s">
-        <v>166</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4919,13 +4580,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4945,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>165</v>
-      </c>
-      <c r="G144" t="s">
-        <v>166</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4971,13 +4628,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4997,13 +4652,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>165</v>
-      </c>
-      <c r="G146" t="s">
-        <v>166</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5023,13 +4676,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
-      </c>
-      <c r="G147" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5049,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>165</v>
-      </c>
-      <c r="G148" t="s">
-        <v>166</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5077,11 +4726,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5101,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>177</v>
-      </c>
-      <c r="G150" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5127,13 +4772,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>18</v>
-      </c>
-      <c r="G151" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5155,11 +4798,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5179,13 +4820,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5207,11 +4846,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5231,13 +4868,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>177</v>
-      </c>
-      <c r="G155" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5257,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5283,13 +4916,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>177</v>
-      </c>
-      <c r="G157" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5309,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5335,13 +4964,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>18</v>
-      </c>
-      <c r="G159" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5361,13 +4988,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>177</v>
-      </c>
-      <c r="G160" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5387,13 +5012,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>18</v>
-      </c>
-      <c r="G161" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5413,13 +5036,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>177</v>
-      </c>
-      <c r="G162" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5439,13 +5060,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>18</v>
-      </c>
-      <c r="G163" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5465,13 +5084,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>177</v>
-      </c>
-      <c r="G164" t="s">
+        <v>164</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
         <v>178</v>
-      </c>
-      <c r="H164" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5491,13 +5108,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
-      </c>
-      <c r="G165" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5517,13 +5132,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>177</v>
-      </c>
-      <c r="G166" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5545,11 +5158,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5569,13 +5180,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>196</v>
-      </c>
-      <c r="G168" t="s">
-        <v>197</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5595,13 +5204,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>18</v>
-      </c>
-      <c r="G169" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5621,13 +5228,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>196</v>
-      </c>
-      <c r="G170" t="s">
-        <v>197</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5647,13 +5252,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>18</v>
-      </c>
-      <c r="G171" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5673,13 +5276,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>196</v>
-      </c>
-      <c r="G172" t="s">
-        <v>197</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5699,13 +5300,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5725,13 +5324,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>196</v>
-      </c>
-      <c r="G174" t="s">
-        <v>197</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5753,11 +5350,9 @@
       <c r="F175" t="s">
         <v>11</v>
       </c>
-      <c r="G175" t="s">
-        <v>12</v>
-      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5777,13 +5372,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>206</v>
-      </c>
-      <c r="G176" t="s">
-        <v>207</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5803,13 +5396,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>18</v>
-      </c>
-      <c r="G177" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5829,13 +5420,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>206</v>
-      </c>
-      <c r="G178" t="s">
-        <v>207</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5855,13 +5444,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>18</v>
-      </c>
-      <c r="G179" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5881,13 +5468,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>206</v>
-      </c>
-      <c r="G180" t="s">
-        <v>207</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5907,13 +5492,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>18</v>
-      </c>
-      <c r="G181" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5933,13 +5516,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>206</v>
-      </c>
-      <c r="G182" t="s">
-        <v>207</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5961,11 +5542,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>12</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5985,13 +5564,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>18</v>
-      </c>
-      <c r="G184" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6013,11 +5590,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>12</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6037,13 +5612,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>18</v>
-      </c>
-      <c r="G186" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6063,13 +5636,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>18</v>
-      </c>
-      <c r="G187" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6091,11 +5662,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6115,13 +5684,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>18</v>
-      </c>
-      <c r="G189" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6143,11 +5710,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>12</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6167,13 +5732,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>18</v>
-      </c>
-      <c r="G191" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6193,13 +5756,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>206</v>
-      </c>
-      <c r="G192" t="s">
-        <v>207</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6221,11 +5782,9 @@
       <c r="F193" t="s">
         <v>11</v>
       </c>
-      <c r="G193" t="s">
-        <v>12</v>
-      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6245,13 +5804,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>226</v>
-      </c>
-      <c r="G194" t="s">
-        <v>227</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6271,13 +5828,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>18</v>
-      </c>
-      <c r="G195" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6297,13 +5852,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>226</v>
-      </c>
-      <c r="G196" t="s">
-        <v>227</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6323,13 +5876,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>18</v>
-      </c>
-      <c r="G197" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6349,13 +5900,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>226</v>
-      </c>
-      <c r="G198" t="s">
-        <v>227</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6375,13 +5924,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>18</v>
-      </c>
-      <c r="G199" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6401,13 +5948,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>226</v>
-      </c>
-      <c r="G200" t="s">
-        <v>227</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6427,13 +5972,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>18</v>
-      </c>
-      <c r="G201" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6453,13 +5996,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>226</v>
-      </c>
-      <c r="G202" t="s">
-        <v>227</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6481,11 +6022,9 @@
       <c r="F203" t="s">
         <v>11</v>
       </c>
-      <c r="G203" t="s">
-        <v>12</v>
-      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6505,13 +6044,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>238</v>
-      </c>
-      <c r="G204" t="s">
-        <v>239</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6531,13 +6068,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>18</v>
-      </c>
-      <c r="G205" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6557,13 +6092,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>238</v>
-      </c>
-      <c r="G206" t="s">
-        <v>239</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6583,13 +6116,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>18</v>
-      </c>
-      <c r="G207" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6609,13 +6140,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>238</v>
-      </c>
-      <c r="G208" t="s">
-        <v>239</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6635,13 +6164,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>18</v>
-      </c>
-      <c r="G209" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6661,13 +6188,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>238</v>
-      </c>
-      <c r="G210" t="s">
-        <v>239</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6689,11 +6214,9 @@
       <c r="F211" t="s">
         <v>11</v>
       </c>
-      <c r="G211" t="s">
-        <v>12</v>
-      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6713,13 +6236,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>18</v>
-      </c>
-      <c r="G212" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6741,11 +6262,9 @@
       <c r="F213" t="s">
         <v>11</v>
       </c>
-      <c r="G213" t="s">
-        <v>12</v>
-      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6765,13 +6284,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>18</v>
-      </c>
-      <c r="G214" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6793,11 +6310,9 @@
       <c r="F215" t="s">
         <v>11</v>
       </c>
-      <c r="G215" t="s">
-        <v>12</v>
-      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6817,13 +6332,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>18</v>
-      </c>
-      <c r="G216" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6845,11 +6358,9 @@
       <c r="F217" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>12</v>
-      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6869,13 +6380,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>18</v>
-      </c>
-      <c r="G218" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6895,13 +6404,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>18</v>
-      </c>
-      <c r="G219" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6923,11 +6430,9 @@
       <c r="F220" t="s">
         <v>11</v>
       </c>
-      <c r="G220" t="s">
-        <v>12</v>
-      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6947,13 +6452,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>18</v>
-      </c>
-      <c r="G221" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6975,11 +6478,9 @@
       <c r="F222" t="s">
         <v>11</v>
       </c>
-      <c r="G222" t="s">
-        <v>12</v>
-      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6999,13 +6500,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>18</v>
-      </c>
-      <c r="G223" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7027,11 +6526,9 @@
       <c r="F224" t="s">
         <v>11</v>
       </c>
-      <c r="G224" t="s">
-        <v>12</v>
-      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7051,13 +6548,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>261</v>
-      </c>
-      <c r="G225" t="s">
-        <v>262</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7079,11 +6574,9 @@
       <c r="F226" t="s">
         <v>11</v>
       </c>
-      <c r="G226" t="s">
-        <v>12</v>
-      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7103,13 +6596,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>18</v>
-      </c>
-      <c r="G227" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7131,11 +6622,9 @@
       <c r="F228" t="s">
         <v>11</v>
       </c>
-      <c r="G228" t="s">
-        <v>12</v>
-      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7155,13 +6644,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>18</v>
-      </c>
-      <c r="G229" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7183,11 +6670,9 @@
       <c r="F230" t="s">
         <v>11</v>
       </c>
-      <c r="G230" t="s">
-        <v>12</v>
-      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7207,13 +6692,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>18</v>
-      </c>
-      <c r="G231" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7235,11 +6718,9 @@
       <c r="F232" t="s">
         <v>11</v>
       </c>
-      <c r="G232" t="s">
-        <v>12</v>
-      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7259,13 +6740,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>18</v>
-      </c>
-      <c r="G233" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7287,11 +6766,9 @@
       <c r="F234" t="s">
         <v>11</v>
       </c>
-      <c r="G234" t="s">
-        <v>12</v>
-      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7311,13 +6788,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>18</v>
-      </c>
-      <c r="G235" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7339,11 +6814,9 @@
       <c r="F236" t="s">
         <v>11</v>
       </c>
-      <c r="G236" t="s">
-        <v>12</v>
-      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7363,13 +6836,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>18</v>
-      </c>
-      <c r="G237" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7391,11 +6862,9 @@
       <c r="F238" t="s">
         <v>11</v>
       </c>
-      <c r="G238" t="s">
-        <v>12</v>
-      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7415,13 +6884,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>18</v>
-      </c>
-      <c r="G239" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7443,11 +6910,9 @@
       <c r="F240" t="s">
         <v>11</v>
       </c>
-      <c r="G240" t="s">
-        <v>12</v>
-      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7467,13 +6932,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>18</v>
-      </c>
-      <c r="G241" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7495,11 +6958,9 @@
       <c r="F242" t="s">
         <v>11</v>
       </c>
-      <c r="G242" t="s">
-        <v>12</v>
-      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97419.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97419.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="294">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400196</t>
   </si>
   <si>
+    <t>Issa</t>
+  </si>
+  <si>
+    <t>Darrell</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Issa. The Committee will come to order.    Today's hearing concerns digital trade, and specifically cross-border data flows. The modern economy requires data flow and to flow freely.    Individuals and businesses rely on technology and the efficient and reliable movement of data across borders. The recent decision by the European Court of Justice, invalidating the 15-year-old Safe Harbor Agreement between the United States and the European Union, created uncertainty that's bad for business everywhere. We hear that a new Safe Harbor Agreement is imminent. But if an agreement is not reached by the end of January 2016, then the consequences for transatlantic data flow and business operations could be dire.    To help us reach a new agreement with the EU, the House passed a Judicial Redress Act last month. Though it still awaits Senate action, it is a strong move by the House to support--in support of reaching this vital agreement.    But cross-border data flow are not simply a transatlantic issue. They also figure prominently in the Trans-Pacific Partner Agreement, or TPP. As we consider digital trade issues more globally, it is important to view the tactics being used to restrict it as much as any other point of it. The trade barriers being used to restrict cross-border data flows are simply nontariff trade barriers. By any other name, it is protectionism, and it hurts U.S. competitiveness; it hurts the very countries who are implementing these protectionist agreements, and ultimately, it will hurt global trading with all the partners who depend on data free flow in a 21st Century.    These trade barriers include localization requirements for cloud computing. That means that instead of harnessing the economies of scale that come from a cloud, companies will be forced to house in facilities in individual countries, resulting in duplicative infrastructure and higher costs. Let us bear in mind that a location anywhere on the face of the earth is a location everywhere on the face of the earth. And many countries seem to ignore that in favor of basically an infrastructure construction project being mandated in their country.    And it's not just technology companies that can be harmed by these types of digital trade barriers. In the financial services industry, banks use a security practice known as charting, that splits a single customer's information into discreet packets that are stored in multiple locations to prevent a hacker from compromising it. By its very definition, this practice would be impossible without the free flow of data.    In July, we held a hearing on The Internet of Things, or IOT. This new era of technology relies on sensors transmitting data to a cloud for analysis. If the data cannot flow freely around the globe, then The Internet of Things technologies will not be as successful as they could be, and, in fact, could restrict many of the technologies already implemented in The Internet of Things.    If countries are allowed to unduly restrict data flow, what is to stop them from creating new market access requirements that require companies to share source code, trade secrets, utilize--utilize or source solely from local companies, and more absurdly, force U.S. studios to alter their story line of a movie as a condition of market access.    The last one isn't that absurd. A report published just last week by the U.S.-China Economic and Security Review Commission, explains just how China regulator--China's regulators do just that as a condition of market access.    As this Committee works to promote digital trade, we are continuing a long battle against market access barriers that take surprisingly, and oftentimes, strange forms.    Though the issues can oft-times seem complex, the goal here is to actually make this simple and understandable for the American people to ensure free and fair trade, improving U.S. competitiveness globally.    Digital trade helps drive the modern economy, and I look forward to our witnesses today and a healthy debate on these issues.    Last but not least, it goes without saying that no one owns data in a global environment exclusively. An economic transaction for an American who is traveling in a foreign country, requires a look-back to their country. If the United States refuses to provide that data, while another country refuses to provide the information as to what is being bought or what service is being procured, then, in fact, you have a standoff; I won't let my data flow to you to tell you what customer X is buying, and you won't tell me if customer X can pay for it. Can you imagine trying to travel with a MasterCard or a Visa or an American Express that simply couldn't cross international lines? Sounds absurd? Not if everyone says, my data is mine, and I won't share.    And with that, I recognize the Ranking Member for his opening statement.</t>
   </si>
   <si>
     <t>400289</t>
   </si>
   <si>
+    <t>Nadler</t>
+  </si>
+  <si>
+    <t>Jerrold</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Nadler. Thank you, Mr. Chairman.    Today's global economy is largely a digital economy. Thanks to the Internet, massive amounts of data can be sent across the global in an instant, connecting businesses and consumers alike. The ability to easily transmit data at low cost throughout the world has spurred tremendous innovation and fostered significant economic growth. But various countries have erected barriers to the free flow of data across borders. Some of these restrictions are intended to stifle dissent and free speech. Some are purely protectionist in nature, or some are for other policy reasons, such as protecting the privacy of a country's citizens.    Today's hearing presents a good opportunity to examine what rules should govern the international flow of data, and what role the United States can play in establishing and enforcing these policies.    When we talk about cross-border data flow, it could be something as simple as someone in a New York office of a multi-national bank and emailing a colleague in the bank's Hong Kong office. It could also be someone sitting in Paris accessing their Facebook account, or logging onto iTunes and downloading movies and songs contained on American servers.    But it also has much more complex applications. Cloud computing allows businesses and consumers to store data and service that could be located anywhere in the world. And some global businesses gather data across their worldwide operations to a centralized location where it can be analyzed to better stream their supply chain or improve service to their customers.    Companies of every shape and size, and across nearly every industry, rely on data that crosses international borders at some point along its journey. That is why it's important that we carefully examine any restrictions that might impede the free flow of data.    Some restrictions, like those that block access to social media or filter out political dissent, are clearly improper, and threaten the human rights of those countries and citizens. America should continue to lead the world in opposing oppressive regimes that stifle the freedom of their people.    Other restrictions, like those requiring a company to process data domestically, or to locate certain infrastructure in-country, are often intended to bolster domestic companies. Many of these restrictions can be removed in the context of trade agreements.    But I have been a persistent critic of some such agreements, in part, because of their devastating impact on American jobs, and we should tread carefully in the digital realm before we make some of the same mistakes we have made with physical goods.    More complicated to address the limitations on data flow, the countries impose to advance other policy goals, like privacy protection. Finding the right balance between protecting the needs of American businesses, respecting the legitimate policies of other Nations, and to ensure that other countries respect ours is not an easy task. That was made clear by the recent decision by the Court of Justice of the European Union to invalidate the U.S. EU Safe Harbor framework. This important agreement enabled more than 4,000 American businesses to transfer the personal data of EU citizens to the United States if the company certify that they would comply with certain adequacy requirements to protect personal privacy.    The court, however, determined, in part, that because the Safe Harbor scheme only applies to companies and not public authorities, there was not adequate protection for EU citizens from U.S. surveillance activities, and the entire agreement was, therefore, invalidated.    The court also found that EU citizens do not have sufficient remedies under U.S. law if their privacy rights after a transfer are violated.    The gentleman from Wisconsin, Mr. Sensenbrenner, and the distinguished Ranking Member of the full Committee, Mr. Conyers, deserve great credit for working to address the second issue by drafting the Judicial Redress Act, which will provide important privacy protections for EU citizens under U.S. law.    The Judicial Redress Act has already passed the House, and I hope the Senate will take it up shortly. I also appreciate the U.S. Department of Commerce, which is hard at work negotiating a new Safe Harbor Agreement. I hope a new agreement is reached soon, but I also hope that Congress will view this incident as a wake-up call.    The USA Freedom Act took an important step in curtailing surveillance activities, but we should go much further in strengthening our privacy protections. It should not take a European court to prod us into protecting our own citizens.    To ensure that businesses have the flexibility they need, while consumers have the protections they deserve, the United States must work with its partners in the global community to set clear standards governing cross-border data flow. I look forward to discussing what these standards ought to be with our esteemed panel of witnesses today, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -67,12 +82,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Goodlatte</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman.    Today's hearing reflects a new twist on the same old song. U.S. companies are at the forefront of the digital economy, and as our companies look to operate globally, they face new and novel nontariff trade barriers that could make it costly, or near impossible, to operate overseas. As we work to promote digital trade, we must work to make sure that the international playing field is fair. When foreign countries attempt to raise trade barriers ore put in costly regulations as a cost of doing business, we need to call it out for what it is, a barrier to free and fair trade.    We are now in a world where, on one side of the globe, the United States has negotiated the Trans-Pacific Partnership Trade Agreement, with rules promoting cross-border data flows and preventing undue restrictions, such as localization requirements.    And on the other side of the globe, we look at Europe, which has invalidated a 15-year-old Safe Harbor Agreement. This decision translates into uncertainty for thousands of American companies doing business in Europe, which could have a ripple effect on our economy.    As the United States and Europe continue to negotiate the new Safe Harbor Agreement, we must understand that this is a complex issue for all sides. And we are cautiously optimistic that the Administration and our European allies will be able to come to an agreement that eliminates uncertainty and allows transatlantic commerce to continue.    In the House, we recently passed the Judicial Redress Act. This bipartisan bill, awaiting Senate action, extends certain privacy protections to citizens of European countries, as well as other allied Nations if the Federal Government willfully discloses information in violation of the Privacy Act. Under this bill, citizens of designated countries will be extended the core benefits of the Privacy Act, which already applies to Americans, with regard to information shared with U.S. law enforcement authorities, including the ability to bring a lawsuit for the intentional or willful disclosure of personal information.    This hearing is important because the rules of the road that are considered on digital trade and data flows will either promote or impede the growth of the Internet. A recent BSA report stated that 90 percent of all of the world's data was created in just the last 2 years. While an incredible statistic, it also shows how important data and data flows are to innovation and economic growth.    Localization requirements, such as forcing companies to locate data centers in a particular country, defeat the whole point of cloud computing. New technologies, like The Internet of Things and cloud computing, rely on cross-border data flows. Undue restrictions could prevent companies like Boeing and GE from using IOT sensors in jet engines to send back real-time data to their engineers in the United States.    For global diversified technology and manufacturing companies, they would face the absurd situation of not being able to move their own R&amp;D data from country to country.    Restrictions on data flows fail to recognize the importance of interconnected global supply chains, and the need for the uninterrupted movement of data.    As this Committee continues to study this issue, it is important for us to keep in mind the effects on public policy today and in the future.    I am hopeful that the right policies will help fuel the engine of American innovation, prosperity, and creativity. I think we have a great panel assembled today, and I look forward to hearing from all of our witnesses.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. The gentleman yields back. Thank you.    We now will hear from the Ranking Member of the full Committee, the gentleman from Michigan, Mr. Conyers.</t>
   </si>
   <si>
+    <t>Conyers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Chairman Issa.    I think this is a more important hearing than a lot of people appreciate it. Certainly, that's the case of myself. And to our distinguished list of panelists, we welcome you all, particularly Dr. Atkinson. But I just want to get something out about the digital trade, because the growth of our economy relies on the expansion of the global digital economy, and efficient cross-border data flow as digital trade becomes a larger portion of the global economy. That's the heart of my introductory comments.    According to the United States International Trade Commission, a digital trade increased U.S. average wages and helped create about 2.4 million full-time positions in 2011, the same year digital trade also increased annual U.S. GDP by 4.8 percent.    As we hear from today's witnesses, which I welcome, I'd like to have considered the following points: To begin with, any discussion on digital trade and unrestricted cross-border data flows requires a serious discussion on surveillance reform. Earlier this year, a coalition of companies, trade associations, civil rights organizations, wrote to the leadership of both parties to outline the economic costs of the significant erosion of global public trust in both the United States Government, and the United States technology sector. Their fears appear to have been prescient.    Last month, citing concerns about insufficient privacy safeguards in the U.S. Court of Justice of the European Union suspended the U.S. EU Safe Harbor framework that allows about 4,400 United States-based companies to move digital information across the Atlantic. The decision is a reminder that we need to have a thorough conversation about surveillance reform. Without one, we cannot fully address eliminating restrictions on cross-border data flow.    A couple of weeks ago, the House took a step toward a fuller discussion by passing H.R. 1428, the Judicial Redress Act, which our colleague, Jim Sensenbrenner, introduced, and I was proud to be a cosponsor of.    The bill extends to the citizens of certain foreign countries, privacy protection, and it will facilitate information-sharing partnerships with law enforcement agencies across the globe. This will save lives.    Although there is far more work to be done, I hope that our allies will take our work on the Judicial Redress Act as a sign of good faith and a first step.    We must continue to work to restore the public trust necessary for the continued success of the United States industry overseas, while protecting individual rights. Digital trade and cross-border data flows are transforming how American consumers and small businesses operate and interact. For example, Ford Motor Company and Boeing, analyze, in real time, digital data from their vehicles and aircrafts. This helps them diagnose problems and quickly find solutions. This saves consumers money and saves lives.    Similarly, small businesses depend on having efficient cross-border data flow in digital trade. For example, digital trade affords them the ability to expand into foreign markets. Consumers rely on online payment processors, like PayPal, to process their payments globally from purchases on online platforms and small businesses.    Finally, the flow of data across international borders presents a unique regulatory setting. Congress, the Administration, foreign governments, and nongovernmental actors, must provide solid consumer protections that safeguard the development of these ever-increasing data flows. The smart and thoughtful discussion I believe we ought have today will be to illuminate barriers to future growth that we need to consider and address. According to studies, restrictions like data localization mandates hinder economic development in those companies that erect barriers to digital trade. We should examine how they affect consumers and the United States-based businesses.    Still, some barriers are necessary to protect against the digital trade of illegal goods and services, such as digital piracy and the trafficking of child pornography.    I look forward with interest to having the witnesses at today's hearing, and I thank the Chairman.</t>
   </si>
   <si>
@@ -97,18 +118,27 @@
     <t xml:space="preserve">    Mr. Issa. You're most welcome.    Without objection, other members' opening statements will be made a part of the record. We now move to our distinguished panel for today.    The witnesses' written statements will be entered into the record in their entirety, and I'd ask you to please summarize, within 5 minutes or less, your opening statement.    To help us stay within the timing, as you may be used to, you will see a red, yellow, and green light in front of you. Please think of them like you do the lights that you never, never run in your daily driving habits.    Before I introduce the witnesses, I would ask that all witnesses please rise to take the oath pursuant to the Committee rules. Raise your right hands.    Do you solemnly swear or affirm that the testimony you're about to give will be the truth, the whole truth, and nothing but the truth?    Please be seated.    Let the record reflect that all witnesses answered in the affirmative.    Our witnesses today include Ambassador Peter Allgeier, president of the Coalition of Service Industries; Dr. Robert Atkinson, president of the Information Technology and Innovation Foundation; Ms. Victoria Espinel, president and CEO of BSA, the Business Software Alliance, or the Software Alliance now as we want to call it; and Mr. Ed Black, president and CEO of the Computer and Communications Industry Association; and certainly never least, Mr. Mark McCarthy, senior vice president of Public Policy for the Software &amp; Information Industry Association.    And with that, we'll go down, starting with the Ambassador. Oh, and before you begin, I would note that we're going to go about 5 or 10 minutes into when the bells ring, and then we'll be gone for roughly half an hour, but we'll try to get through as many witnesses as possible.    Ambassador.</t>
   </si>
   <si>
+    <t>Allgeier</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Allgeier. Thank you very much, Mr. Chairman, Mr. Ranking Member, and Members of the Subcommittee for allowing me to participate in today's hearing.    The global economy today is in the midst of two revolutions that are inextricably linked: The digital revolution and the services revolution. And the United States is in the best position to define the courses of these revolutions, and to benefit from them if we follow appropriate policies, especially in international trade.    Now, the services revolution is evident from the fact that service is, by far, the largest source of jobs, of GDP, and of job growth. And more importantly, they are the enablers of all other sectors of the economy, including manufacturing, agriculture, and energy.    At the center of the service's revolution, however, is the second revolution, the digital revolution. And all services, indeed, all parts of the economy, depend upon digital communication within their own businesses, with their customers, and with their suppliers. And the Internet, of course, is emblematic of the digital revolution. This revolution has enabled services to be delivered digitally across borders to a degree that was unimaginable two decades ago. But, the international rules and provisions governing trade and services and digital trade have not kept up with these developments. So they urgently need to be updated and brought into line with the realities of a digitally-connected world.    Now, as a number of the members already have said, many countries do not share our entrepreneurial and technological aptitudes and seek to get advantage by imposing legal restrictions on the ability of a firm to manage and move its own data across borders, or they impose requirements to store data on local servers. A common measure by such countries is for the government to require that foreign firms establish facilities for storing and processing their data in the jurisdiction that they are serving.    This tendency is particularly pronounced in regulated sectors such as banking, insurance, and telecommunications.    These localization requirements essentially make cloud computing services impossible. Examples of local data storage and processing requirements abound, just, for example, in Greece, in China, in India, in Russia, in Indonesia, and in Malaysia.    So it is essential that our government oppose attempts, in all sectors, to impose localization requirements on local businesses. The opportunity to do so lies in the various trade negotiations that are occurring now. The Trans-Pacific Partnership, the Transatlantic Trade and Investment Partnership, the Trade in Services Agreement in Geneva, and also work in the World Trade Organization.    These negotiations should set the standards for digital trade by, one, ensuring parties can transfer, access, process and store data across borders; two, prohibiting parties from requiring the establishment or use of local servers; three, ensuring nondiscriminatory treatment of digital products and services from other parties; and four, allowing parties to regulate cross-border data flows for legitimate policy reasons, but only within the accepted standards that are included in the World Trade Organization in the GATS, the General Agreement on Trade in Services.    So how are we doing with respect to using these trade agreements? The TPP has made important progress in advancing the objective of freedom for cross-border data flows and prohibitions on localization requirements. However, it includes one very disturbing exception to the prohibition on localization requirements, and that is that financial services, including banking and insurance, are excluded from the localization prohibition. Every other business has that prohibition in this agreement. But most disturbing is that this exception was at the insistence of the U.S. Government, and this misguided position gives our trading partners the perfect political argument to impose such requirements on our businesses.    What we need to do, in addition to fixing that, is to ensure that we don't repeat that mistake in the negotiations that are taking place elsewhere in the transatlantic negotiations, and in the Trade in Services Agreement.    I'll just make one point about Safe Harbor, because that also is something that is extremely important. Everybody knows that that decision was just handed down by the Court of Justice in Europe. Our member companies are very eager to work with the Congress and the Administration to find a solution that preserves our companies' ability to move data across the Atlantic, but with appropriate respect for individuals' privacy.    So thank you, Mr. Chairman and members. We very much appreciate the opportunity to be part of this today, and congratulate you on the attention that you are paying to this issue. It's extremely important to the service industry, but also to the economy more broadly. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. Thank you, Ambassador.    Dr. Atkinson.TESTIMONY OF ROBERT D. ATKINSON, Ph.D., FOUNDER AND PRESIDENT, </t>
   </si>
   <si>
+    <t>Atkinson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Atkinson. Good afternoon, Chairman Issa, Ranking Member Nadler, Members of the Subcommittee. It's a pleasure to be here today to talk about this critical issue. And in my written testimony, I go into great length and detail on all the economic benefits to both the global and the U.S. economy from cross-border data flows, so I won't go into that too much, but I want to make one point that a couple of others have made, which is, this is not, quote, ``just a Silicon Valley thing.'' Cross-border data flows are critical to a wide variety of industry, mining, agriculture, automobile production, finance, retailers.    So this is really something that's affecting all of our industries, all sizes of companies. And, unfortunately, we don't have the ability to control our own fate here, because a growing number of Nations are engaging in digital protectionism. Some of the policy reasons for them are, perhaps, legitimate in the sense that they have this concern for privacy. In other cases, privacy is a guise for just naked protectionism; they don't want data to flow outside their country in order to benefit their own domestic companies. And in, still, other cases, companies are requiring data to reside in their borders so they can have unfetterred government access to that data without the rule of law.    But whatever the rationale, this data protectionism hurts the U.S. economy. It raises costs for our companies; it makes them have less global market share. That's why in 2013, ITIF estimated that the cost to U.S. technology companies alone from all of the Snowden revelations and the backlash against us and the restrictions that companies--countries were putting in place under the guise of the Snowden revelations, we stood--our technology companies stood to lose anywhere between 21- and $35 billion by next year in revenues, in global revenues. That hurts not just our technology companies, but the U.S. economy and U.S. workers.    So what do we need to do? I think one of the things we cannot do for a lot of, I think, reasons, but one is we cannot simply say that the way to solve this problem is to adopt the most stringent privacy regime in the world. We can't have another region, another country, tell us what our laws and rules should be with regard to privacy. Our view is our privacy rules and policies are actually the reason we lead in the global digital economy, not the other way around. So we cannot have one solution.    The good news is, we don't have to have one solution. The way--we've argued very, very strongly that when a foreign--when a U.S. company operates on foreign soil, they're subject to the laws of that country. They can't just--just by moving data back to the U.S., they can't get out of their legal obligation. They can't then say, well, we're going to use U.S. privacy policies, even though we have a branch in Brussels.    So in a lot of ways, I think this is a lot of much ado about nothing. We can look just, for example, at the Canadian privacy commissioner, who has filed a number of successful suits against U.S. companies who have branch plants or facilities in Canada, who have broken, or purportedly, broken Canadian privacy law by moving the data back to the U.S., processing it in a way that was against Canadian rules. The Canadian Government had the ability and the right to bring action against those U.S. companies. They did so, and they prevailed. There's no reason why Europe couldn't do the exact same thing.    So what do we need do? I agree with the Ambassador, we really need to push forward on two steps: The first step being trade agreements. TPP purportedly has--reportedly has strong agreements, protections for digital trade there, TiSA as well. But I think the key challenge there is really making sure that any national security or privacy exceptions are very, very narrow. The risk is that the exceptions won't be narrow, and countries will use this again as a guise to restrict--to restrict data flows.    I also think the U.S. should not be overly defensive, at least on the commercial side of the ledger. We have a right to do what we're doing. Our companies aren't really breaking any laws, by and large. And I think it's time for us to at least put on the table the possibility of a WTO suit against Europe. Europe has, as we all know, cut off our access to data flows to the U.S. because of the Safe Harbor. They have not cut off data flows to Israel; they have not cut off data flows to Argentina, neither--both of those countries still have agreements with Europe, and yet, there is no evidence that the national security protections for government access to that data in Israel or Argentina are any less stringent than ours. If Europe wants to go down this path, they should cut off data flows from every country in the world, not just the United States.    And lastly, we need to--one area we do need to act on is with regard to government access of data. Our companies in America can comply with foreign laws quite well, and when they don't, they can be prosecuted. What they can't comply with is what government does with data. That's why we've proposed that we work with Europe to craft what we call the Geneva convention on the acts on data, where we come up with a set of norms and rules that we would all agree with in terms of government access to data to restore that trust.    Thank you for the opportunity to appear before you today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. And thank you.</t>
   </si>
   <si>
+    <t>Espinel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Espinel. Sorry. Ms. Espinel. I do that. I apologize. Thanks. Victoria.</t>
   </si>
   <si>
@@ -130,6 +160,9 @@
     <t xml:space="preserve">    Mr. Issa. Thank you.    Mr. Black.</t>
   </si>
   <si>
+    <t>Black</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Black. Mr. Chairman, Ranking Member, and Members of the Subcommittee, thank you for your focus on this important issue.</t>
   </si>
   <si>
@@ -142,6 +175,9 @@
     <t xml:space="preserve">    Mr. Issa. Thank you.    Mr. MacCarthy.  TESTIMONY OF MARK MacCARTHY, SENIOR VICE PRESIDENT, PUBLIC </t>
   </si>
   <si>
+    <t>MacCarthy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. MacCarthy. Chairman Issa, Ranking Member Nadler----</t>
   </si>
   <si>
@@ -307,6 +343,12 @@
     <t>400071</t>
   </si>
   <si>
+    <t>Chabot</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Chabot. I thank the Chairman for yielding, and also for holding this very, I think, important and very interesting hearing this afternoon.    It has been mentioned that barriers to free trade in the digital arena have a particularly adverse impact on small businesses, and I happen to be the Chairman of the House Small Business Committee, so I'd just like to ask--give each of the witnesses an opportunity to address what steps should be taken, specifically, to address this adverse impact on small businesses.    And I'll start with you, Mr. Allgeier, Ambassador Allgeier. If that's okay, and I'll just go down the line. If you don't have anything to say, that's okay, too, but----</t>
   </si>
   <si>
@@ -352,6 +394,12 @@
     <t>412379</t>
   </si>
   <si>
+    <t>Chu</t>
+  </si>
+  <si>
+    <t>Judy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Chu. Thank you, Mr. Chair.    Dr. Atkinson, you state that several countries around the world are limiting free trade in data, and you argue they are motivated by privacy and security concerns, national security and law enforcement concerns, and the desire for economic growth. The European Court of Justice recognized that the U.S. lacks an adequate level of protection for EU data amongst other privacy concerns.    Within this context, can you tell me how the EU views individual privacy and data security, and to what laws or principles do they have in place and what do we have in place here in the U.S.?</t>
   </si>
   <si>
@@ -391,6 +439,12 @@
     <t>412531</t>
   </si>
   <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman. I appreciate it.    Ms. Espinel, I want to go back to something, and then I've got others, too. Back in October last year, 2014, many of my colleagues, including myself, wrote a letter to the U.S. trade representative about the TPP. And just to review, first--we had several things: First, we wanted to include provisions that specifically keep borders open to free flow of data; second, it must prohibit countries from acquiring the use of local data servers and computing infrastructure as a condition for providing digital service; third, it must ensure nondiscriminatory treatment of digital products and services.    Based just on the reports that have come out so far from the Administration and others, where do you think we are in that right now?</t>
   </si>
   <si>
@@ -478,6 +532,12 @@
     <t>412505</t>
   </si>
   <si>
+    <t>DelBene</t>
+  </si>
+  <si>
+    <t>Suzan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. DelBene. Thank you, Mr. Chair. And thanks for calling this important and timely hearing.    And thanks to all of you for being here with us today.    First, I want to start with Ms. Espinel. As you state in your testimony, quote, ``In striking down the Safe Harbor, the Court of Justice focused on issues around national security and law enforcement access to data. Troubled by the Snowden leaks, the court concluded that countries that permit indiscriminate surveillance and interception, and mass and undifferentiated accessing of personal data could not be deemed adequate under EU law,'' end quote.    While the national security piece is certainly something familiar to members of this Committee, could you elaborate a bit on why the EU might be concerned about current U.S. law on law enforcement access to data?</t>
   </si>
   <si>
@@ -511,6 +571,12 @@
     <t>412468</t>
   </si>
   <si>
+    <t>Marino</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Mr. Chairman.    I know my colleague and coauthor, Ms. DelBene, asked direct and pointed questions concerning the LEADS Act, so I don't want to get into rehashing that. But is there anyone on the panel that wants to respond even further because of--given the fact that Ms. DelBene ran out of time? Please.</t>
   </si>
   <si>
@@ -565,6 +631,12 @@
     <t>412561</t>
   </si>
   <si>
+    <t>Jeffries</t>
+  </si>
+  <si>
+    <t>Hakeem</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Jeffries. Thank you, Mr. Chair.    And I want to thank the witnesses for their presence here today and for very thought-provoking testimony.    Let me start with Ms. Espinel. There have been some concerns that have been raised by some of the people that I represent, and, indeed, many aspects of the American public about sort of the downside of development of big data, the privacy concerns with respect to this data being misappropriated, abused, and misused.    But I was wondering if you could speak to some of the potential upsides, the transformative nature of big data as it develops to improve, you know, the quality of life, or address social conditions or improve the functioning of the economy as we move forward.</t>
   </si>
   <si>
@@ -592,6 +664,12 @@
     <t>400652</t>
   </si>
   <si>
+    <t>Poe</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Mr. Chairman.    Thank you all for being here.    I want to talk about a specific issue of privacy: Surveillance by government. That's what I'm talking about. Not cybersecurity or any of those issues. Let's focus on that one issue.    To me, the United States has always been the world leader in privacy. We have a Fourth Amendment that you're all familiar with. Many countries, maybe most don't have such a concept as the Fourth Amendment, protection against unreasonable searches and seizures by government.    Mr. Atkinson, you talked about the Europeans use privacy as an excuse for really protectionism. I want to delve in this a little further and, talk about and ask you your opinion. There are three issues that we have regarding government surveillance on Americans. And if the perception of the Europeans is that America doesn't protect the right of privacy, perception, whether it's reality or not, is part of the reason we have this issue with the Europeans.    And one of those is the concept of the FISA courts; the second is surveillance under 702 warrants; the third is backdoor searches, and encryption that government may encourage our businesses to have into their systems; and the fourth is EPCA, whether it should be reformed or hasn't been reformed.    Those four issues to me, and I'm a former judge, are issues where it seems that government intrusion in those four areas and the failure for us, Congress, to redefine or define the Fourth Amendment to make sure it applies in those four areas or not may be part of the problem we have with dealing with foreign countries on the issues that you've all talked about.    So my question is--and I want all five of you to weigh in on this, I just want your opinion--does Congress, in your opinion, need to look at each of those four issues, those four areas where government surveillance on citizens is allowed, and fix that problem, or look at those four issues? What do you think about that issue as regarding government surveillance on citizens and the effect it has on businesses being able to have the free flow of data around the world?    So that's really the only question I have, and I'd like to just start and go down the row and see what you all think about that.</t>
   </si>
   <si>
@@ -649,6 +727,12 @@
     <t>412470</t>
   </si>
   <si>
+    <t>Cicilline</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cicilline. Thank you, Mr. Chairman.    Thank you to the witnesses for this very useful testimony, as we sort of struggle with this question of how do we preserve cross-border data flows, and if we're really making the point of how important this is to our economy, and how unsustainable a system that interrupts those flows would be in the long term.    And you've all spoken about the need for a narrowly-crafted, but least-restrictive-of-trade kind of standard. And I want to sort of press you a little bit on that, and beginning with you, Mr. Ambassador. You make the same argument, of course, in your written testimony that we need a workable, and commercially-viable and legally-valid alternative to the Safe Harbor provision.    I wonder if you could just expand on this a little bit, and describe what you think should be included in such an alternative. And also, how do your member companies plan to take privacy concerns into account until such a new standard is developed?</t>
   </si>
   <si>
@@ -682,6 +766,12 @@
     <t>400245</t>
   </si>
   <si>
+    <t>Lofgren</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Lofgren. Well, thank you. This has been very interesting, and I appreciate the insight shared by all the witnesses to the Committee.    You know, I think that we are in for a very tough time, actually long term, in trying to reconcile very different approaches to freedom, essentially. If you take a look at what the European Court of Justice did, they basically said that the 2000 Commission had erred by failing to take into account the interaction of U.S. domestic law and U.S. international policy and the framework; in other words, it didn't take in the whole picture, and it's going to allow the data protection agencies in each country to investigate violations. Well, where does that lead us?    I mean, you've got a situation in Europe, and I--as Ms. DelBene mentioned, many of us meet with the parliamentarians from Europe, who feel that their decision on right to be forgotten is extremely important to them and very valuable. And when you get into it with them, you say--I mean, recently, an agency in France ruled that links in content removed under their right to be forgotten has to be removed worldwide. And when you talk to them about, Hey, we have a First Amendment. Even if we agreed with you, we can't agree with you. I mean, we can't allow elimination of First Amendment rights.    So when you talk about data, I think it's--it depends on which kind of data you're talking about. I mean, if you have a database that is the product of the health study, and it's completely owned by, you know, a university, it's possible to control the sharing of that data in a very different way than a posting on Facebook. You know, I think we're looking--we're looking down the road at some very severe--and I'm not sure how we get to a situation that's going to be suitable. But getting to that, I'm wondering--you know, Mr. Black, you mentioned the right to be forgotten and others have talked about it, is a major barrier to data flow. How do you see this ending up when you've got the First Amendment that protects Americans' right to free speech, and a Europe that has no equivalent respect for speech, but has an equivalent right to--to sensor? How are we going to resolve this?</t>
   </si>
   <si>
@@ -746,6 +836,12 @@
   </si>
   <si>
     <t>412199</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Henry</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Johnson. Well, no. In fact, I'm--I'm prompted to yield whatever time that the gentleman would extend to me, the 5 minutes. I tend to think that I might be better off by just simply yielding to you and listening to your questions. There's a lot that I missed having been absent at an Armed Services Committee meeting, and I don't want to go over plowed ground. I'm just kind of here to learn. And so with that, I will yield back to the Chair.</t>
@@ -1148,7 +1244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H242"/>
+  <dimension ref="A1:I242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1156,7 +1252,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1178,5789 +1274,6773 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
       <c r="H38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
       <c r="H40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
       <c r="H42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
       <c r="H44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>53</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>53</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>53</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>53</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>40</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>40</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>37</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>25</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>25</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>34</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>25</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>53</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>25</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>53</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>40</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>25</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>96</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G85" t="s">
+        <v>109</v>
+      </c>
       <c r="H85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>34</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>96</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G87" t="s">
+        <v>109</v>
+      </c>
       <c r="H87" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>37</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>96</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G89" t="s">
+        <v>109</v>
+      </c>
       <c r="H89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>40</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>96</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G91" t="s">
+        <v>109</v>
+      </c>
       <c r="H91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>48</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>96</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G93" t="s">
+        <v>109</v>
+      </c>
       <c r="H93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I93" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>96</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G95" t="s">
+        <v>109</v>
+      </c>
       <c r="H95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>53</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>96</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G97" t="s">
+        <v>109</v>
+      </c>
       <c r="H97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>111</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G99" t="s">
+        <v>126</v>
+      </c>
       <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>37</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>111</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G101" t="s">
+        <v>126</v>
+      </c>
       <c r="H101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>37</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>111</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G103" t="s">
+        <v>126</v>
+      </c>
       <c r="H103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>37</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>111</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G105" t="s">
+        <v>126</v>
+      </c>
       <c r="H105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>40</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>111</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G107" t="s">
+        <v>126</v>
+      </c>
       <c r="H107" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>40</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>111</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G109" t="s">
+        <v>126</v>
+      </c>
       <c r="H109" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
       <c r="H110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>124</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G111" t="s">
+        <v>141</v>
+      </c>
       <c r="H111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>40</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>124</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G113" t="s">
+        <v>141</v>
+      </c>
       <c r="H113" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I113" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G114" t="s">
+        <v>40</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>124</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G115" t="s">
+        <v>141</v>
+      </c>
       <c r="H115" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G116" t="s">
+        <v>40</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>124</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G117" t="s">
+        <v>141</v>
+      </c>
       <c r="H117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I117" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G118" t="s">
+        <v>37</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>124</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G119" t="s">
+        <v>141</v>
+      </c>
       <c r="H119" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I119" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G120" t="s">
+        <v>37</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>124</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G121" t="s">
+        <v>141</v>
+      </c>
       <c r="H121" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>37</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>124</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G123" t="s">
+        <v>141</v>
+      </c>
       <c r="H123" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I123" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>37</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>124</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G125" t="s">
+        <v>141</v>
+      </c>
       <c r="H125" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I125" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>48</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>124</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G127" t="s">
+        <v>141</v>
+      </c>
       <c r="H127" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I127" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G128" t="s">
+        <v>48</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>124</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G129" t="s">
+        <v>141</v>
+      </c>
       <c r="H129" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="I129" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G130" t="s">
+        <v>48</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>124</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G131" t="s">
+        <v>141</v>
+      </c>
       <c r="H131" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I131" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
       <c r="H132" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>124</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G133" t="s">
+        <v>141</v>
+      </c>
       <c r="H133" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I133" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
       <c r="H134" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G135" t="s">
+        <v>48</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>124</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G136" t="s">
+        <v>141</v>
+      </c>
       <c r="H136" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G137" t="s">
+        <v>48</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>124</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G138" t="s">
+        <v>141</v>
+      </c>
       <c r="H138" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I138" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
       <c r="H139" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>153</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G140" t="s">
+        <v>172</v>
+      </c>
       <c r="H140" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I140" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G141" t="s">
+        <v>40</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>153</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G142" t="s">
+        <v>172</v>
+      </c>
       <c r="H142" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I142" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G143" t="s">
+        <v>40</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>153</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G144" t="s">
+        <v>172</v>
+      </c>
       <c r="H144" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I144" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G145" t="s">
+        <v>40</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>153</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G146" t="s">
+        <v>172</v>
+      </c>
       <c r="H146" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I146" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G147" t="s">
+        <v>37</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>153</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G148" t="s">
+        <v>172</v>
+      </c>
       <c r="H148" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I148" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>13</v>
+      </c>
       <c r="H149" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I149" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>164</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G150" t="s">
+        <v>185</v>
+      </c>
       <c r="H150" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I150" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>16</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G151" t="s">
+        <v>53</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
       <c r="H152" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G153" t="s">
+        <v>53</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
       <c r="H154" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>164</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G155" t="s">
+        <v>185</v>
+      </c>
       <c r="H155" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I155" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>16</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G156" t="s">
+        <v>53</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>164</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G157" t="s">
+        <v>185</v>
+      </c>
       <c r="H157" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I157" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>16</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G158" t="s">
+        <v>40</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>16</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G159" t="s">
+        <v>48</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>164</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G160" t="s">
+        <v>185</v>
+      </c>
       <c r="H160" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I160" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G161" t="s">
+        <v>37</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>164</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G162" t="s">
+        <v>185</v>
+      </c>
       <c r="H162" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I162" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>16</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>40</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>164</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G164" t="s">
+        <v>185</v>
+      </c>
       <c r="H164" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I164" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
+        <v>40</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>164</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="G166" t="s">
+        <v>185</v>
+      </c>
       <c r="H166" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I166" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
       <c r="H167" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I167" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>182</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G168" t="s">
+        <v>205</v>
+      </c>
       <c r="H168" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I168" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>16</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G169" t="s">
+        <v>40</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>182</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G170" t="s">
+        <v>205</v>
+      </c>
       <c r="H170" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I170" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>16</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G171" t="s">
+        <v>40</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>182</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G172" t="s">
+        <v>205</v>
+      </c>
       <c r="H172" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I172" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>16</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G173" t="s">
+        <v>40</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>182</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="G174" t="s">
+        <v>205</v>
+      </c>
       <c r="H174" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I174" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G175" t="s">
+        <v>13</v>
+      </c>
       <c r="H175" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I175" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>191</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G176" t="s">
+        <v>216</v>
+      </c>
       <c r="H176" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I176" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>16</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G177" t="s">
+        <v>37</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>191</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G178" t="s">
+        <v>216</v>
+      </c>
       <c r="H178" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I178" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>16</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G179" t="s">
+        <v>37</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>191</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G180" t="s">
+        <v>216</v>
+      </c>
       <c r="H180" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I180" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>16</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G181" t="s">
+        <v>40</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>191</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G182" t="s">
+        <v>216</v>
+      </c>
       <c r="H182" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I182" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G183" t="s">
+        <v>13</v>
+      </c>
       <c r="H183" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I183" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>16</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G184" t="s">
+        <v>48</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G185" t="s">
+        <v>13</v>
+      </c>
       <c r="H185" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I185" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>16</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G186" t="s">
+        <v>48</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>16</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G187" t="s">
+        <v>40</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>11</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G188" t="s">
+        <v>13</v>
+      </c>
       <c r="H188" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I188" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>16</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G189" t="s">
+        <v>53</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>11</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G190" t="s">
+        <v>13</v>
+      </c>
       <c r="H190" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I190" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>16</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G191" t="s">
+        <v>53</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>191</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="G192" t="s">
+        <v>216</v>
+      </c>
       <c r="H192" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>217</v>
+      </c>
+      <c r="I192" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>11</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G193" t="s">
+        <v>13</v>
+      </c>
       <c r="H193" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I193" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>210</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="G194" t="s">
+        <v>237</v>
+      </c>
       <c r="H194" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>238</v>
+      </c>
+      <c r="I194" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>16</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G195" t="s">
+        <v>34</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>210</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="G196" t="s">
+        <v>237</v>
+      </c>
       <c r="H196" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>238</v>
+      </c>
+      <c r="I196" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>16</v>
-      </c>
-      <c r="G197" t="s"/>
-      <c r="H197" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G197" t="s">
+        <v>37</v>
+      </c>
+      <c r="H197" t="s"/>
+      <c r="I197" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>210</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="G198" t="s">
+        <v>237</v>
+      </c>
       <c r="H198" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>238</v>
+      </c>
+      <c r="I198" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>16</v>
-      </c>
-      <c r="G199" t="s"/>
-      <c r="H199" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G199" t="s">
+        <v>37</v>
+      </c>
+      <c r="H199" t="s"/>
+      <c r="I199" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>210</v>
-      </c>
-      <c r="G200" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="G200" t="s">
+        <v>237</v>
+      </c>
       <c r="H200" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>238</v>
+      </c>
+      <c r="I200" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>16</v>
-      </c>
-      <c r="G201" t="s"/>
-      <c r="H201" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G201" t="s">
+        <v>40</v>
+      </c>
+      <c r="H201" t="s"/>
+      <c r="I201" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>210</v>
-      </c>
-      <c r="G202" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="G202" t="s">
+        <v>237</v>
+      </c>
       <c r="H202" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>238</v>
+      </c>
+      <c r="I202" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>11</v>
-      </c>
-      <c r="G203" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G203" t="s">
+        <v>13</v>
+      </c>
       <c r="H203" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I203" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>221</v>
-      </c>
-      <c r="G204" t="s"/>
+        <v>249</v>
+      </c>
+      <c r="G204" t="s">
+        <v>250</v>
+      </c>
       <c r="H204" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="I204" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>16</v>
-      </c>
-      <c r="G205" t="s"/>
-      <c r="H205" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G205" t="s">
+        <v>48</v>
+      </c>
+      <c r="H205" t="s"/>
+      <c r="I205" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>221</v>
-      </c>
-      <c r="G206" t="s"/>
+        <v>249</v>
+      </c>
+      <c r="G206" t="s">
+        <v>250</v>
+      </c>
       <c r="H206" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="I206" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>16</v>
-      </c>
-      <c r="G207" t="s"/>
-      <c r="H207" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G207" t="s">
+        <v>48</v>
+      </c>
+      <c r="H207" t="s"/>
+      <c r="I207" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>221</v>
-      </c>
-      <c r="G208" t="s"/>
+        <v>249</v>
+      </c>
+      <c r="G208" t="s">
+        <v>250</v>
+      </c>
       <c r="H208" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="I208" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>16</v>
-      </c>
-      <c r="G209" t="s"/>
-      <c r="H209" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G209" t="s">
+        <v>48</v>
+      </c>
+      <c r="H209" t="s"/>
+      <c r="I209" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>221</v>
-      </c>
-      <c r="G210" t="s"/>
+        <v>249</v>
+      </c>
+      <c r="G210" t="s">
+        <v>250</v>
+      </c>
       <c r="H210" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="I210" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>11</v>
-      </c>
-      <c r="G211" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G211" t="s">
+        <v>13</v>
+      </c>
       <c r="H211" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I211" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>16</v>
-      </c>
-      <c r="G212" t="s"/>
-      <c r="H212" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G212" t="s">
+        <v>37</v>
+      </c>
+      <c r="H212" t="s"/>
+      <c r="I212" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>11</v>
-      </c>
-      <c r="G213" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G213" t="s">
+        <v>13</v>
+      </c>
       <c r="H213" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I213" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>16</v>
-      </c>
-      <c r="G214" t="s"/>
-      <c r="H214" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G214" t="s">
+        <v>37</v>
+      </c>
+      <c r="H214" t="s"/>
+      <c r="I214" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>11</v>
-      </c>
-      <c r="G215" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G215" t="s">
+        <v>13</v>
+      </c>
       <c r="H215" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I215" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>16</v>
-      </c>
-      <c r="G216" t="s"/>
-      <c r="H216" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G216" t="s">
+        <v>37</v>
+      </c>
+      <c r="H216" t="s"/>
+      <c r="I216" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>11</v>
-      </c>
-      <c r="G217" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G217" t="s">
+        <v>13</v>
+      </c>
       <c r="H217" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I217" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>16</v>
-      </c>
-      <c r="G218" t="s"/>
-      <c r="H218" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G218" t="s">
+        <v>34</v>
+      </c>
+      <c r="H218" t="s"/>
+      <c r="I218" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>16</v>
-      </c>
-      <c r="G219" t="s"/>
-      <c r="H219" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G219" t="s">
+        <v>40</v>
+      </c>
+      <c r="H219" t="s"/>
+      <c r="I219" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>11</v>
-      </c>
-      <c r="G220" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G220" t="s">
+        <v>13</v>
+      </c>
       <c r="H220" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I220" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>16</v>
-      </c>
-      <c r="G221" t="s"/>
-      <c r="H221" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G221" t="s">
+        <v>48</v>
+      </c>
+      <c r="H221" t="s"/>
+      <c r="I221" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>11</v>
-      </c>
-      <c r="G222" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G222" t="s">
+        <v>13</v>
+      </c>
       <c r="H222" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I222" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>16</v>
-      </c>
-      <c r="G223" t="s"/>
-      <c r="H223" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G223" t="s">
+        <v>53</v>
+      </c>
+      <c r="H223" t="s"/>
+      <c r="I223" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>11</v>
-      </c>
-      <c r="G224" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G224" t="s">
+        <v>13</v>
+      </c>
       <c r="H224" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I224" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>243</v>
-      </c>
-      <c r="G225" t="s"/>
+        <v>273</v>
+      </c>
+      <c r="G225" t="s">
+        <v>274</v>
+      </c>
       <c r="H225" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>275</v>
+      </c>
+      <c r="I225" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F226" t="s">
-        <v>11</v>
-      </c>
-      <c r="G226" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G226" t="s">
+        <v>13</v>
+      </c>
       <c r="H226" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I226" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F227" t="s">
-        <v>16</v>
-      </c>
-      <c r="G227" t="s"/>
-      <c r="H227" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G227" t="s">
+        <v>53</v>
+      </c>
+      <c r="H227" t="s"/>
+      <c r="I227" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F228" t="s">
-        <v>11</v>
-      </c>
-      <c r="G228" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G228" t="s">
+        <v>13</v>
+      </c>
       <c r="H228" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I228" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E229" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F229" t="s">
-        <v>16</v>
-      </c>
-      <c r="G229" t="s"/>
-      <c r="H229" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G229" t="s">
+        <v>48</v>
+      </c>
+      <c r="H229" t="s"/>
+      <c r="I229" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E230" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F230" t="s">
-        <v>11</v>
-      </c>
-      <c r="G230" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G230" t="s">
+        <v>13</v>
+      </c>
       <c r="H230" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I230" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E231" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F231" t="s">
-        <v>16</v>
-      </c>
-      <c r="G231" t="s"/>
-      <c r="H231" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G231" t="s">
+        <v>48</v>
+      </c>
+      <c r="H231" t="s"/>
+      <c r="I231" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E232" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F232" t="s">
-        <v>11</v>
-      </c>
-      <c r="G232" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G232" t="s">
+        <v>13</v>
+      </c>
       <c r="H232" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I232" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E233" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F233" t="s">
-        <v>16</v>
-      </c>
-      <c r="G233" t="s"/>
-      <c r="H233" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G233" t="s">
+        <v>40</v>
+      </c>
+      <c r="H233" t="s"/>
+      <c r="I233" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E234" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F234" t="s">
-        <v>11</v>
-      </c>
-      <c r="G234" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G234" t="s">
+        <v>13</v>
+      </c>
       <c r="H234" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I234" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E235" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F235" t="s">
-        <v>16</v>
-      </c>
-      <c r="G235" t="s"/>
-      <c r="H235" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G235" t="s">
+        <v>40</v>
+      </c>
+      <c r="H235" t="s"/>
+      <c r="I235" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E236" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F236" t="s">
-        <v>11</v>
-      </c>
-      <c r="G236" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G236" t="s">
+        <v>13</v>
+      </c>
       <c r="H236" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I236" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E237" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F237" t="s">
-        <v>16</v>
-      </c>
-      <c r="G237" t="s"/>
-      <c r="H237" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G237" t="s">
+        <v>40</v>
+      </c>
+      <c r="H237" t="s"/>
+      <c r="I237" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E238" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F238" t="s">
-        <v>11</v>
-      </c>
-      <c r="G238" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G238" t="s">
+        <v>13</v>
+      </c>
       <c r="H238" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I238" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E239" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F239" t="s">
-        <v>16</v>
-      </c>
-      <c r="G239" t="s"/>
-      <c r="H239" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G239" t="s">
+        <v>37</v>
+      </c>
+      <c r="H239" t="s"/>
+      <c r="I239" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E240" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F240" t="s">
-        <v>11</v>
-      </c>
-      <c r="G240" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G240" t="s">
+        <v>13</v>
+      </c>
       <c r="H240" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I240" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E241" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F241" t="s">
-        <v>16</v>
-      </c>
-      <c r="G241" t="s"/>
-      <c r="H241" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G241" t="s">
+        <v>34</v>
+      </c>
+      <c r="H241" t="s"/>
+      <c r="I241" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E242" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F242" t="s">
-        <v>11</v>
-      </c>
-      <c r="G242" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G242" t="s">
+        <v>13</v>
+      </c>
       <c r="H242" t="s">
-        <v>261</v>
+        <v>14</v>
+      </c>
+      <c r="I242" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
